--- a/clcore_ig/output/StructureDefinition-AuditEventCl.xlsx
+++ b/clcore_ig/output/StructureDefinition-AuditEventCl.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$70</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="522">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T17:15:51-03:00</t>
+    <t>2024-09-26T12:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -520,7 +520,28 @@
     <t>Activity</t>
   </si>
   <si>
-    <t>AuditEvent.type.id</t>
+    <t>AuditEvent.subtype</t>
+  </si>
+  <si>
+    <t>Especificacion mas detallada del evento</t>
+  </si>
+  <si>
+    <t>Identifier for the category of event.</t>
+  </si>
+  <si>
+    <t>This field enables queries of messages by implementation-defined event categories.</t>
+  </si>
+  <si>
+    <t>Códigos de desarrollados para DICOM</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/audit-event-sub-type</t>
+  </si>
+  <si>
+    <t>EventTypeCode</t>
+  </si>
+  <si>
+    <t>AuditEvent.subtype.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -539,7 +560,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>AuditEvent.type.extension</t>
+    <t>AuditEvent.subtype.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -558,13 +579,13 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>AuditEvent.type.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+    <t>AuditEvent.subtype.system</t>
+  </si>
+  <si>
+    <t>Sistema de Códigos</t>
+  </si>
+  <si>
+    <t>Sistema de ejemplo de códigos que describen con mas detalle el evento</t>
   </si>
   <si>
     <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
@@ -579,7 +600,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>AuditEvent.type.version</t>
+    <t>AuditEvent.subtype.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -597,7 +618,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>AuditEvent.type.code</t>
+    <t>AuditEvent.subtype.code</t>
   </si>
   <si>
     <t>Symbol in syntax defined by the system</t>
@@ -615,7 +636,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>AuditEvent.type.display</t>
+    <t>AuditEvent.subtype.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -633,7 +654,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>AuditEvent.type.userSelected</t>
+    <t>AuditEvent.subtype.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -658,54 +679,6 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>AuditEvent.subtype</t>
-  </si>
-  <si>
-    <t>Especificacion mas detallada del evento</t>
-  </si>
-  <si>
-    <t>Nivel mayor de profundidad del evento</t>
-  </si>
-  <si>
-    <t>This field enables queries of messages by implementation-defined event categories.</t>
-  </si>
-  <si>
-    <t>Códigos de desarrollados para DICOM</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-event-sub-type</t>
-  </si>
-  <si>
-    <t>EventTypeCode</t>
-  </si>
-  <si>
-    <t>AuditEvent.subtype.id</t>
-  </si>
-  <si>
-    <t>AuditEvent.subtype.extension</t>
-  </si>
-  <si>
-    <t>AuditEvent.subtype.system</t>
-  </si>
-  <si>
-    <t>Sistema de Códigos</t>
-  </si>
-  <si>
-    <t>Sistema de ejemplo de códigos que describen con mas detalle el evento</t>
-  </si>
-  <si>
-    <t>AuditEvent.subtype.version</t>
-  </si>
-  <si>
-    <t>AuditEvent.subtype.code</t>
-  </si>
-  <si>
-    <t>AuditEvent.subtype.display</t>
-  </si>
-  <si>
-    <t>AuditEvent.subtype.userSelected</t>
-  </si>
-  <si>
     <t>AuditEvent.action</t>
   </si>
   <si>
@@ -1004,7 +977,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(PractitionerRole|Practitioner|Organization|Device|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreRolClinicoCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl|Device|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1973,7 +1946,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP77"/>
+  <dimension ref="A1:AP70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1992,7 +1965,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3369,28 +3342,30 @@
         <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3414,13 +3389,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -3438,31 +3413,31 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>80</v>
@@ -3473,21 +3448,21 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
@@ -3499,17 +3474,15 @@
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3546,16 +3519,16 @@
         <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>173</v>
@@ -3564,19 +3537,19 @@
         <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>80</v>
@@ -3593,46 +3566,44 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
         <v>176</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3668,37 +3639,37 @@
         <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>80</v>
@@ -3741,7 +3712,7 @@
         <v>93</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>182</v>
@@ -3752,7 +3723,9 @@
       <c r="N15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3800,7 +3773,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3818,7 +3791,7 @@
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -3835,10 +3808,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3861,18 +3834,18 @@
         <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
         <v>190</v>
       </c>
+      <c r="N16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3920,7 +3893,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3938,7 +3911,7 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
@@ -3955,10 +3928,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3981,17 +3954,17 @@
         <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -4040,7 +4013,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4058,7 +4031,7 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
@@ -4075,10 +4048,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4101,7 +4074,7 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>201</v>
@@ -4109,11 +4082,9 @@
       <c r="M18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -4162,7 +4133,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4180,7 +4151,7 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -4197,10 +4168,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4211,10 +4182,10 @@
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>80</v>
@@ -4223,7 +4194,7 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>208</v>
@@ -4231,9 +4202,11 @@
       <c r="M19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4258,37 +4231,37 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
@@ -4300,13 +4273,13 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4334,25 +4307,27 @@
         <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4376,13 +4351,13 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -4400,7 +4375,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4412,19 +4387,19 @@
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4435,24 +4410,24 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>80</v>
@@ -4461,16 +4436,16 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4508,57 +4483,57 @@
         <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4566,7 +4541,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
@@ -4581,19 +4556,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4642,10 +4617,10 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>92</v>
@@ -4660,27 +4635,27 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4694,7 +4669,7 @@
         <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
@@ -4703,16 +4678,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4738,13 +4713,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4762,7 +4737,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4780,13 +4755,13 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4797,10 +4772,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4814,7 +4789,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>80</v>
@@ -4823,18 +4798,16 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4882,7 +4855,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4900,13 +4873,13 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -4917,10 +4890,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4931,7 +4904,7 @@
         <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4943,18 +4916,18 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>163</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4978,13 +4951,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -5002,13 +4975,13 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
@@ -5017,65 +4990,65 @@
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>202</v>
+        <v>272</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>203</v>
+        <v>273</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>204</v>
+        <v>274</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5124,13 +5097,13 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
@@ -5139,30 +5112,30 @@
         <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5176,27 +5149,25 @@
         <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5220,13 +5191,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5244,7 +5215,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5256,19 +5227,19 @@
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5279,24 +5250,24 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>80</v>
@@ -5305,16 +5276,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>138</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5364,80 +5335,80 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>243</v>
+        <v>138</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5486,45 +5457,45 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5538,26 +5509,24 @@
         <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5582,13 +5551,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5606,7 +5575,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5621,30 +5590,30 @@
         <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5655,7 +5624,7 @@
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5664,19 +5633,23 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>163</v>
+        <v>256</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5700,13 +5673,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5724,13 +5697,13 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
@@ -5742,41 +5715,41 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>
@@ -5785,18 +5758,20 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5820,13 +5795,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5844,13 +5819,13 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
@@ -5859,44 +5834,44 @@
         <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>276</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H33" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>80</v>
@@ -5905,19 +5880,17 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>279</v>
+        <v>170</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5966,13 +5939,13 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="AG33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH33" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
@@ -5981,30 +5954,30 @@
         <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6027,16 +6000,18 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>164</v>
+        <v>327</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>165</v>
+        <v>328</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6084,7 +6059,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>166</v>
+        <v>326</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6096,22 +6071,22 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>167</v>
+        <v>330</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>80</v>
@@ -6119,21 +6094,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -6142,21 +6117,23 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>139</v>
+        <v>333</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>169</v>
+        <v>333</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6204,31 +6181,31 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>173</v>
+        <v>332</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>167</v>
+        <v>336</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6239,46 +6216,42 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>138</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6326,45 +6299,45 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>135</v>
+        <v>343</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6375,7 +6348,7 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6387,16 +6360,20 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>265</v>
+        <v>106</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6420,13 +6397,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6444,13 +6421,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6459,30 +6436,30 @@
         <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>306</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6493,7 +6470,7 @@
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6505,19 +6482,17 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6542,13 +6517,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>312</v>
+        <v>154</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6566,13 +6541,13 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
@@ -6584,31 +6559,31 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>304</v>
+        <v>362</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6624,23 +6599,19 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6688,7 +6659,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6703,30 +6674,30 @@
         <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6749,18 +6720,16 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>171</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>331</v>
+        <v>172</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6808,7 +6777,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>329</v>
+        <v>173</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6820,22 +6789,22 @@
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>333</v>
+        <v>174</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>80</v>
@@ -6843,21 +6812,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6869,18 +6838,18 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
+        <v>139</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6928,34 +6897,34 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>335</v>
+        <v>180</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>339</v>
+        <v>174</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>80</v>
@@ -6963,45 +6932,45 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>343</v>
+        <v>141</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>344</v>
+        <v>147</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7050,31 +7019,31 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>345</v>
+        <v>135</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7085,10 +7054,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7102,7 +7071,7 @@
         <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>80</v>
@@ -7111,16 +7080,20 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>348</v>
+        <v>170</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7168,7 +7141,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7183,30 +7156,30 @@
         <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7217,10 +7190,10 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
@@ -7229,19 +7202,17 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7266,13 +7237,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7290,13 +7261,13 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -7308,27 +7279,27 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7339,7 +7310,7 @@
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7351,18 +7322,18 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7389,10 +7360,10 @@
         <v>154</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>368</v>
+        <v>260</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>369</v>
+        <v>261</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7410,13 +7381,13 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
@@ -7428,16 +7399,16 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
@@ -7445,10 +7416,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7456,7 +7427,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>92</v>
@@ -7471,16 +7442,20 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7528,10 +7503,10 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>92</v>
@@ -7546,13 +7521,13 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7563,10 +7538,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7589,13 +7564,13 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7646,7 +7621,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7664,7 +7639,7 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7681,10 +7656,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7713,7 +7688,7 @@
         <v>139</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>141</v>
@@ -7766,7 +7741,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7784,7 +7759,7 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7801,14 +7776,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7830,10 +7805,10 @@
         <v>138</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>141</v>
@@ -7888,7 +7863,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7923,10 +7898,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7940,7 +7915,7 @@
         <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>80</v>
@@ -7949,19 +7924,17 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8010,7 +7983,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8028,16 +8001,16 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
@@ -8045,18 +8018,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>92</v>
@@ -8068,20 +8041,20 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>112</v>
+        <v>310</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8106,13 +8079,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -8130,10 +8103,10 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>92</v>
@@ -8148,13 +8121,13 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>384</v>
+        <v>316</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8165,10 +8138,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8191,18 +8164,18 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8229,10 +8202,10 @@
         <v>154</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>269</v>
+        <v>418</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>270</v>
+        <v>419</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8250,7 +8223,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8268,16 +8241,16 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AM52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="AO52" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>80</v>
@@ -8285,21 +8258,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>93</v>
@@ -8311,19 +8284,19 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8372,45 +8345,45 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>104</v>
+        <v>427</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>407</v>
+        <v>160</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8433,13 +8406,13 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8490,7 +8463,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8508,7 +8481,7 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8525,10 +8498,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8557,7 +8530,7 @@
         <v>139</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>141</v>
@@ -8610,7 +8583,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8628,7 +8601,7 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8645,14 +8618,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8674,10 +8647,10 @@
         <v>138</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>141</v>
@@ -8732,7 +8705,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8767,10 +8740,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8784,27 +8757,25 @@
         <v>92</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>163</v>
+        <v>436</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>414</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8852,7 +8823,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8870,60 +8841,62 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>415</v>
+        <v>316</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>407</v>
+        <v>160</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>319</v>
+        <v>150</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O58" t="s" s="2">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8948,13 +8921,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>80</v>
+        <v>446</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8972,10 +8945,10 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>92</v>
@@ -8990,27 +8963,27 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>325</v>
+        <v>447</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>407</v>
+        <v>160</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9021,7 +8994,7 @@
         <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9036,14 +9009,14 @@
         <v>150</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9071,10 +9044,10 @@
         <v>154</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9092,13 +9065,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -9110,16 +9083,16 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9127,24 +9100,24 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>80</v>
@@ -9153,19 +9126,19 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>279</v>
+        <v>150</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9190,13 +9163,13 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>80</v>
+        <v>463</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>80</v>
+        <v>466</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -9214,45 +9187,45 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>436</v>
+        <v>104</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>160</v>
+        <v>459</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>440</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9263,7 +9236,7 @@
         <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9275,16 +9248,20 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>164</v>
+        <v>471</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9308,13 +9285,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>80</v>
+        <v>476</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9332,31 +9309,31 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>166</v>
+        <v>470</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>167</v>
+        <v>477</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9367,21 +9344,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9390,21 +9367,23 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>139</v>
+        <v>480</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>169</v>
+        <v>481</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9452,34 +9431,34 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>173</v>
+        <v>479</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>484</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>167</v>
+        <v>485</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9487,45 +9466,43 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>294</v>
+        <v>489</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>147</v>
+        <v>483</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9574,31 +9551,31 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>296</v>
+        <v>488</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>135</v>
+        <v>491</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>80</v>
+        <v>492</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9609,10 +9586,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9626,7 +9603,7 @@
         <v>92</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>80</v>
@@ -9635,16 +9612,20 @@
         <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9692,7 +9673,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9701,7 +9682,7 @@
         <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>484</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>104</v>
@@ -9710,27 +9691,27 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>325</v>
+        <v>499</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>160</v>
+        <v>459</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9741,7 +9722,7 @@
         <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9753,19 +9734,17 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9790,13 +9769,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9814,13 +9793,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -9832,27 +9811,27 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>160</v>
+        <v>459</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9875,18 +9854,16 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>461</v>
+        <v>171</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>462</v>
+        <v>172</v>
       </c>
       <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>463</v>
-      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9910,13 +9887,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>464</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9934,7 +9911,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>460</v>
+        <v>173</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -9946,22 +9923,22 @@
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>466</v>
+        <v>174</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>80</v>
@@ -9969,21 +9946,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>470</v>
+        <v>508</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>470</v>
+        <v>508</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9995,20 +9972,18 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>471</v>
+        <v>139</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>472</v>
+        <v>176</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10032,13 +10007,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>475</v>
+        <v>80</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -10056,49 +10031,49 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>476</v>
+        <v>174</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>477</v>
+        <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>478</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10111,25 +10086,25 @@
         <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>480</v>
+        <v>285</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>481</v>
+        <v>286</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>482</v>
+        <v>141</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>483</v>
+        <v>147</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10154,13 +10129,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10178,7 +10153,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>479</v>
+        <v>287</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10190,19 +10165,19 @@
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>486</v>
+        <v>135</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>487</v>
+        <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10213,10 +10188,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10224,7 +10199,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>92</v>
@@ -10236,23 +10211,19 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10300,16 +10271,16 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>493</v>
+        <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>104</v>
@@ -10318,16 +10289,16 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>494</v>
+        <v>420</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>496</v>
+        <v>80</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>80</v>
@@ -10335,10 +10306,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10346,7 +10317,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>92</v>
@@ -10361,17 +10332,19 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>163</v>
+        <v>515</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="O70" t="s" s="2">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10420,10 +10393,10 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>92</v>
@@ -10438,865 +10411,23 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="P71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="P72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP77" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP77">
+  <autoFilter ref="A1:AP70">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11306,7 +10437,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
